--- a/Output/AllModels_SensitivityExchangeProcesses_12000.xlsx
+++ b/Output/AllModels_SensitivityExchangeProcesses_12000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55EEE14-B1F1-4AB6-94B9-3C7CCECE61AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA383042-DC81-4BE4-A65C-6530C08737BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="291">
   <si>
     <t/>
   </si>
@@ -43,6 +43,36 @@
     <t>Non-Zero</t>
   </si>
   <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -343,6 +373,75 @@
     <t>[0.51,   1.68]</t>
   </si>
   <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>1.72***</t>
+  </si>
+  <si>
+    <t>[ 1.57,  1.90]</t>
+  </si>
+  <si>
+    <t>1.07***</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.10]</t>
+  </si>
+  <si>
+    <t>1.04***</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.06]</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t>0.83*</t>
+  </si>
+  <si>
+    <t>[0.70,   0.98]</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.39***</t>
+  </si>
+  <si>
+    <t>[ 1.28,  1.52]</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.08]</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.03]</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.07]</t>
+  </si>
+  <si>
+    <t>[0.74,   1.04]</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
     <t>Daily wear time</t>
   </si>
   <si>
@@ -352,75 +451,6 @@
     <t>[ 1.00,   1.00]</t>
   </si>
   <si>
-    <t>Daily support received</t>
-  </si>
-  <si>
-    <t>1.72***</t>
-  </si>
-  <si>
-    <t>[ 1.57,  1.90]</t>
-  </si>
-  <si>
-    <t>1.07***</t>
-  </si>
-  <si>
-    <t>[ 1.05,  1.10]</t>
-  </si>
-  <si>
-    <t>1.04***</t>
-  </si>
-  <si>
-    <t>[ 1.02,   1.06]</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t>0.83*</t>
-  </si>
-  <si>
-    <t>[0.70,   0.98]</t>
-  </si>
-  <si>
-    <t>Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.39***</t>
-  </si>
-  <si>
-    <t>[ 1.28,  1.52]</t>
-  </si>
-  <si>
-    <t>1.05***</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.08]</t>
-  </si>
-  <si>
-    <t>[ 0.99,   1.03]</t>
-  </si>
-  <si>
-    <t>0.04*</t>
-  </si>
-  <si>
-    <t>[ 0.01, 0.07]</t>
-  </si>
-  <si>
-    <t>[0.74,   1.04]</t>
-  </si>
-  <si>
-    <t>Is a Weekend</t>
-  </si>
-  <si>
-    <t>JITAI received</t>
-  </si>
-  <si>
-    <t>Days post skilled support intervention</t>
-  </si>
-  <si>
     <t>Between-Person Effects</t>
   </si>
   <si>
@@ -598,75 +628,75 @@
     <t>[0.00,   0.98]</t>
   </si>
   <si>
+    <t>Mean individual's received support</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[ 1.00,  1.70]</t>
+  </si>
+  <si>
+    <t>1.12*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.23]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.16]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>[0.36,   1.49]</t>
+  </si>
+  <si>
+    <t>Mean partner's received support</t>
+  </si>
+  <si>
+    <t>1.48**</t>
+  </si>
+  <si>
+    <t>[ 1.14,  1.92]</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.07]</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.09]</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.07]</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>[0.45,   1.36]</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
     <t>Mean wear time</t>
   </si>
   <si>
-    <t>Mean individual's received support</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>[ 1.00,  1.70]</t>
-  </si>
-  <si>
-    <t>1.12*</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.23]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[ 0.98,   1.16]</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>[0.36,   1.49]</t>
-  </si>
-  <si>
-    <t>Mean partner's received support</t>
-  </si>
-  <si>
-    <t>1.48**</t>
-  </si>
-  <si>
-    <t>[ 1.14,  1.92]</t>
-  </si>
-  <si>
-    <t>[ 0.89,  1.07]</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.09]</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>[-0.24, 0.07]</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>[0.45,   1.36]</t>
-  </si>
-  <si>
-    <t>Difference study group 2</t>
-  </si>
-  <si>
-    <t>Difference study group 3</t>
-  </si>
-  <si>
     <t>Random Effects</t>
   </si>
   <si>
@@ -863,25 +893,13 @@
   </si>
   <si>
     <t>[0.93, 0.97]</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>exp(Est.)</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -906,35 +924,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -960,22 +959,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +972,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,21 +992,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1319,7 +1293,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1341,34 +1315,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1376,16 +1350,16 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1411,514 +1385,510 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>282</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>130</v>
+      <c r="A18" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1932,8 +1902,8 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>131</v>
+      <c r="A19" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1947,357 +1917,357 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>132</v>
+      <c r="A20" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>133</v>
+      <c r="A21" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>134</v>
+      <c r="A22" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>144</v>
+      <c r="A23" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>213</v>
+      <c r="A31" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2311,379 +2281,383 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
-        <v>214</v>
+      <c r="A32" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>215</v>
+      <c r="A33" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
-        <v>216</v>
+      <c r="A34" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
-        <v>225</v>
+      <c r="A35" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>236</v>
+      <c r="A36" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>274</v>
+      <c r="A41" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="A42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
